--- a/spreadsheet/macrofree/resiliency_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/resiliency_checklist.ko.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -1109,7 +1074,7 @@
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>자동 인스턴스 복구는 비정상 인스턴스를 즉시 식별하고 교체하여 확장 집합 내에서 정상 인스턴스 집합을 유지 관리합니다.</t>
+          <t>자동 인스턴스 복구는 비정상 인스턴스를 즉시 식별하고 교체하여 확장 집합 내에서 정상 인스턴스 집합을 유지 관리하도록 합니다.</t>
         </is>
       </c>
       <c r="E8" s="21" t="inlineStr">
@@ -1254,12 +1219,12 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>모든 VM에 Managed Disks가 사용되는지 확인</t>
+          <t>모든 VM에 Managed Disks가 사용되는지 확인합니다.</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>Azure는 지역 내에서 관리 디스크를 자동으로 복제하여 데이터 내구성을 보장하고 단일 지점 오류로부터 보호합니다.</t>
+          <t>Azure는 데이터 내구성을 보장하고 단일 지점 오류로부터 보호하기 위해 지역 내에서 관리 디스크를 자동으로 복제합니다.</t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
@@ -1304,12 +1269,12 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>손실이 허용되지 않는 경우 Temp 디스크를 사용하지 마십시오</t>
+          <t>분실할 수 없는 물건에는 임시 디스크를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>임시 디스크는 페이지 파일, 스왑 파일 또는 SQL Server tempdb와 같은 비영구 데이터를 단기간에 저장하기 위한 것입니다. 임시 디스크에 영구 데이터를 저장하면 유지 관리 이벤트 또는 VM 재배포 중에 데이터가 손실될 수 있습니다.</t>
+          <t>임시 디스크는 페이지 파일, 스왑 파일 또는 SQL Server tempdb와 같은 비영구 데이터의 단기 저장을 위한 것입니다. 임시 디스크에 영구 데이터를 저장하면 유지 관리 이벤트 또는 VM 재배포 중에 데이터가 손실될 수 있습니다.</t>
         </is>
       </c>
       <c r="E12" s="21" t="inlineStr">
@@ -1354,12 +1319,12 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>지원되는 지역의 VM에 가용성 영역 활용Leverage Availability Zones for your VMs in regions they are supported</t>
+          <t>지원되는 지역의 VM에 대한 가용성 영역 활용Leverage Availability Zones for your VMs in their comes supported</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>컴퓨팅, 스토리지, 네트워킹 및 데이터 리소스를 가용성 영역에 함께 배치하고 이 배열을 다른 가용성 영역에 복제합니다.</t>
+          <t>가용성 영역 전체에 컴퓨팅, 스토리지, 네트워킹 및 데이터 리소스를 공동 배치하고 이 배열을 다른 가용성 영역에 복제합니다.</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
@@ -1404,12 +1369,12 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>가용성 영역을 지원하지 않는 지역의 경우 가용성 집합에 VM 배포</t>
+          <t>가용성 영역을 지원하지 않는 지역의 경우 가용성 집합에 VM을 배포합니다.</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>가용성 집합에서 두 개 이상의 VM을 사용하여 서로 다른 장애 및 업데이트 도메인에서 VM을 격리합니다.</t>
+          <t>가용성 집합에서 두 개 이상의 VM을 사용하여 서로 다른 장애 환경에서 VM을 격리하고 도메인을 업데이트합니다.</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
@@ -1454,12 +1419,12 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>단일 VM에서 프로덕션 워크로드를 실행하지 않도록 방지Avoid running a production workload on a single VM</t>
+          <t>단일 VM에서 프로덕션 워크로드를 실행하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>Azure는 다양한 요구 사항(가용성 영역, Virtual Machine Scale Sets, 가용성 집합, Azure Site Recovery)을 충족하기 위해 VM 중복성에 대한 여러 옵션을 제공합니다</t>
+          <t>Azure는 다양한 요구 사항(가용성 영역, Virtual Machine Scale Sets, 가용성 집합, Azure Site Recovery)을 충족하기 위해 VM 중복성에 대한 여러 옵션을 제공합니다.</t>
         </is>
       </c>
       <c r="E15" s="21" t="inlineStr">
@@ -1504,12 +1469,12 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>RTO 요구 사항이 낮은 Azure 및 온-프레미스 VM(Hyper-V/Phyiscal/VMware)의 경우 Azure Site Recovery 사용</t>
+          <t>RTO 요구 사항이 낮은 Azure 및 온-프레미스 VM(Hyper-V/Phyiscal/VMware)의 경우 Azure Site Recovery를 사용합니다.</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery를 사용하면 연속 복제 및 장애 조치(failover) 기능을 제공하여 Azure 및 하이브리드 VM에 대해 낮은 RTO(복구 시간 목표)를 달성할 수 있습니다.</t>
+          <t>Azure Site Recovery를 사용하면 지속적인 복제 및 장애 조치(failover) 기능을 제공하여 Azure 및 하이브리드 VM에 대해 낮은 RTO(복구 시간 목표)를 달성할 수 있습니다.</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
@@ -1554,7 +1519,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>보장된 용량이 필요한 중요한 워크로드에 용량 예약 사용Use Capacity Reservations for critical workloads that require guaranteed capacity</t>
+          <t>보장된 용량이 필요한 중요한 워크로드에 대해 용량 예약을 사용합니다</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
@@ -1604,12 +1569,12 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>ASR을 사용하여 장애 조치(failover)를 테스트하기 전에 DR 지역의 할당량 늘리기</t>
+          <t>ASR을 사용하여 장애 조치(failover)를 테스트하기 전에 DR 지역에서 할당량 늘리기</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>ASR을 사용하여 장애 조치(failover)를 테스트하기 전에 DR 지역에서 필요한 할당량이 증가하는지 확인하면 장애 조치(failover)된 VM에 대한 복구 프로세스 중에 잠재적인 리소스 제약 조건을 방지할 수 있습니다.</t>
+          <t>ASR을 사용하여 장애 조치(failover)를 테스트하기 전에 DR 지역에서 필요한 할당량이 증가하도록 하면 장애 조치(failover)된 VM에 대한 복구 프로세스 중에 잠재적인 리소스 제약 조건을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="E18" s="21" t="inlineStr">
@@ -1654,12 +1619,12 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>예약된 이벤트를 활용하여 VM 유지 관리 준비</t>
+          <t>VM 유지 관리를 준비하기 위해 예약된 이벤트 활용</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>예약된 이벤트는 VM(가상 머신)에 대한 예정된 유지 관리 이벤트에 대한 정보를 제공하는 Azure 메타데이터 서비스입니다. 예약된 이벤트를 활용하면 VM 유지 관리를 위해 애플리케이션을 사전에 준비하여 중단을 최소화하고 VM의 가용성을 개선할 수 있습니다.</t>
+          <t>예약된 이벤트는 VM(가상 머신)에 대한 예정된 유지 관리 이벤트에 대한 정보를 제공하는 Azure 메타데이터 서비스입니다. Scheduled Events를 활용하면 VM 유지 관리를 위해 애플리케이션을 사전에 준비하여 중단을 최소화하고 VM의 가용성을 개선할 수 있습니다.</t>
         </is>
       </c>
       <c r="E19" s="21" t="inlineStr">
@@ -1699,7 +1664,7 @@
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>저장소 계정</t>
+          <t>스토리지 계정</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
@@ -1709,7 +1674,7 @@
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>고가용성이 필요한 시나리오와 특정 국가 또는 지역으로 복제를 제한하는 경우 주 지역에서 ZRS(영역 중복 스토리지)를 사용합니다. 지역 재해로부터 보호하려면 주 지역의 ZRS를 보조 지역에 대한 지역 복제와 결합하는 GZRS(지역 영역 중복 스토리지)를 사용합니다.</t>
+          <t>고가용성이 필요한 시나리오와 특정 국가 또는 지역으로 복제를 제한하는 시나리오에 대해 주 지역에서 ZRS(영역 중복 스토리지)를 사용합니다. 지역 재해로부터 보호하려면 주 지역의 ZRS를 보조 지역으로의 지역 복제와 결합하는 GZRS(지역 영역 중복 스토리지)를 사용합니다.</t>
         </is>
       </c>
       <c r="E20" s="21" t="inlineStr">
@@ -1749,17 +1714,17 @@
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>저장소 계정</t>
+          <t>스토리지 계정</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정의 우발적 또는 악의적인 삭제를 방지하기 위해 삭제 잠금을 적용합니다</t>
+          <t>스토리지 계정의 우발적 또는 악의적 삭제를 방지하기 위해 삭제 잠금을 적용합니다.</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정에 삭제 잠금을 할당하면 데이터의 가용성을 보호하여 비즈니스 운영 중단 위험을 최소화할 수 있습니다.</t>
+          <t>스토리지 계정에 삭제 잠금을 할당하면 데이터의 가용성을 보호하여 비즈니스 운영이 중단될 위험을 최소화할 수 있습니다.</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
@@ -1799,17 +1764,17 @@
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>저장소 계정</t>
+          <t>스토리지 계정</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정 컨테이너에 대해 일시 삭제 사용Enable soft delete for Storage Account Containers</t>
+          <t>Storage 계정 컨테이너에 대해 일시 삭제 사용Enable soft delete for Storage Account Containers</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>컨테이너 일시 삭제는 지정된 기간 동안 시스템에서 삭제된 데이터를 유지 관리하여 데이터가 실수로 삭제되지 않도록 보호합니다.</t>
+          <t>컨테이너 일시 삭제는 삭제된 데이터를 지정된 기간 동안 시스템에서 유지 관리하여 데이터가 실수로 삭제되는 것을 방지합니다.</t>
         </is>
       </c>
       <c r="E22" s="21" t="inlineStr">
@@ -1849,12 +1814,12 @@
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>저장소 계정</t>
+          <t>스토리지 계정</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Blob에 대해 일시 삭제 사용Enable soft delete for blobs</t>
+          <t>Blob에 대해 일시 삭제 사용</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
@@ -1904,12 +1869,12 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>향상된 데이터 보호 및 복구를 위해 Azure Backup 향상된 일시 삭제 사용Enable Azure Backup enhanced soft delete for improved data protection and recovery</t>
+          <t>향상된 데이터 보호 및 복구를 위해 Azure Backup 고급 일시 삭제 사용</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup 향상된 일시 삭제는 삭제된 백업을 유지하여 랜섬웨어 공격에 대한 중요한 보호를 제공하여 잠재적인 랜섬웨어 암호화 또는 삭제로부터 복구할 수 있도록 합니다.</t>
+          <t>Azure Backup 고급 일시 삭제는 삭제된 백업을 유지하여 랜섬웨어 공격에 대한 중요한 보호를 제공하여 잠재적인 랜섬웨어 암호화 또는 삭제로부터 복구할 수 있도록 합니다.</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
@@ -2004,12 +1969,12 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>볼트에 불변 스토리지를 구현하여 랜섬웨어로부터 보호하고 백업에 대한 무단 수정을 방지합니다.</t>
+          <t>자격 증명 모음에 대한 변경 불가능한 스토리지를 구현하여 랜섬웨어로부터 보호하고 백업에 대한 무단 수정을 방지합니다.</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>Azure Immutable Storage는 자격 증명 모음에 저장된 백업 데이터를 지정된 보존 기간 동안 수정하거나 삭제할 수 없도록 하여 추가 보안 계층을 제공합니다. 이렇게 하면 백업 데이터를 손상시키거나 조작하려고 시도할 수 있는 랜섬웨어 공격으로부터 백업을 보호할 수 있습니다.</t>
+          <t>Azure Immutable Storage는 자격 증명 모음에 저장된 백업 데이터가 지정된 보존 기간 동안 수정되거나 삭제될 수 없도록 하여 추가 보안 계층을 제공합니다. 이렇게 하면 백업 데이터를 손상시키거나 조작하려고 할 수 있는 랜섬웨어 공격으로부터 백업을 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="E26" s="21" t="inlineStr">
@@ -2059,7 +2024,7 @@
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>Azure 환경에 대한 조직의 비즈니스 연속성 및 재해 복구 요구 사항을 명확하게 정의합니다. 여기에는 보호해야 하는 중요한 애플리케이션, 데이터 및 서비스를 식별하고 원하는 복구 목표 및 전략을 지정하는 것이 포함됩니다.</t>
+          <t>Azure 환경에 대한 조직의 비즈니스 연속성 및 재해 복구 요구 사항을 명확하게 정의합니다. 여기에는 보호해야 하는 중요한 응용 프로그램, 데이터 및 서비스를 식별하고 원하는 복구 목표와 전략을 지정하는 것이 포함됩니다.</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
@@ -2157,7 +2122,7 @@
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>IaC 구성은 특히 복구 시간이 시간에 민감하지 않은 상황에서 재해 복구 계획에서 중요한 역할을 할 수 있습니다. 두 번째 지역에서 인프라를 재현하는 경우 IaC를 사용하여 필요한 인프라를 재현할 수 있습니다.</t>
+          <t>IaC 구성은 재해 복구 계획에서 중요한 역할을 할 수 있으며, 특히 복구 시간이 시간에 민감하지 않은 상황에서 중요한 역할을 할 수 있습니다. 두 번째 지역에서 인프라를 다시 만드는 경우 IaC를 사용하여 필요한 인프라를 재현할 수 있습니다.</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -2206,7 +2171,7 @@
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>Azure는 지리적으로 분리된 지역 쌍을 제공하며 지역 간 복제 및 재해 복구에 사용할 수 있습니다. 이러한 지역 쌍은 지역 또는 대규모 재해에 대한 중복성 및 보호를 제공합니다.</t>
+          <t>Azure는 지리적으로 분리되어 있으며 지역 간 복제 및 재해 복구에 사용할 수 있는 지역 쌍을 제공합니다. 이러한 지역 쌍은 지역 또는 대규모 재해에 대한 중복성 및 보호를 제공합니다.</t>
         </is>
       </c>
       <c r="E30" s="21" t="inlineStr">
@@ -2255,7 +2220,7 @@
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>최소 인스턴스 수가 2인 Application Gateway를 배포하면 정상적인 상황에서 두 개 이상의 인스턴스를 사용할 수 있습니다. 인스턴스 중 하나에 문제가 발생하면 새 인스턴스가 생성되는 동안 다른 인스턴스가 트래픽을 처리합니다. 이 접근 방식은 서비스 중단의 위험을 크게 줄이고 사용자에게 원활한 경험을 보장합니다.</t>
+          <t>최소 인스턴스 수가 2인 Application Gateway를 배포하면 정상적인 상황에서 두 개 이상의 인스턴스를 사용할 수 있습니다. 인스턴스 중 하나에 문제가 발생하면 새 인스턴스가 생성되는 동안 다른 인스턴스가 트래픽을 처리합니다. 이 접근 방식은 서비스 중단 위험을 크게 줄이고 사용자에게 원활한 경험을 보장합니다.</t>
         </is>
       </c>
       <c r="E31" s="21" t="inlineStr">
@@ -2304,7 +2269,7 @@
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>v2 SKU는 애플리케이션 인프라의 가용성과 복원력을 향상시키는 몇 가지 장점과 중요한 새 기능을 제공합니다. v2 SKU에서 지원하는 주목할 만한 기능 중 하나는 Application Gateway 배포가 여러 가용성 영역에 걸쳐 있을 수 있도록 하는 영역 중복성입니다.</t>
+          <t>v2 SKU는 애플리케이션 인프라의 가용성과 복원력을 향상시키는 몇 가지 이점과 중요한 새 기능을 제공합니다. v2 SKU에서 지원하는 주목할 만한 기능 중 하나는 영역 중복성으로, 이를 통해 Application Gateway 배포가 여러 가용성 영역에 걸쳐 있을 수 있습니다.</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
@@ -2349,12 +2314,12 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door와 함께 중복 트래픽 관리 솔루션 고려</t>
+          <t>Azure Front Door와 함께 중복 트래픽 관리 솔루션을 고려합니다.</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Front Door는 자동 장애 조치(failover) 기능을 제공하여 주 지역을 사용할 수 없게 되는 경우 연속성을 보장합니다. 그러나 장애 조치(failover) 프로세스 중에 클라이언트가 애플리케이션에 연결할 수 없는 짧은 기간(일반적으로 20-60초)이 있을 수 있습니다. Azure Front Door SLA(서비스 수준 계약)를 검토하여 Front Door에만 의존하는 것이 고가용성에 대한 비즈니스 요구 사항을 충족하는지 여부를 확인하는 것이 중요합니다. </t>
+          <t xml:space="preserve">Azure Front Door는 자동 장애 조치(failover) 기능을 제공하여 주 지역을 사용할 수 없게 되는 경우 연속성을 보장합니다. 그러나 장애 조치(failover) 프로세스 중에는 클라이언트가 응용 프로그램에 연결할 수 없는 짧은 기간(일반적으로 20-60초)이 있을 수 있습니다. Azure Front Door SLA(서비스 수준 계약)를 검토하여 Front Door에만 의존하는 것이 고가용성에 대한 비즈니스 요구 사항을 충족하는지 여부를 확인하는 것이 중요합니다. </t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
@@ -2394,7 +2359,7 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>DNS (디엔디</t>
+          <t>DNS (영문)</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
@@ -2404,7 +2369,7 @@
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>Traffic Manager를 구현하면 애플리케이션 엔드포인트의 상태를 지속적으로 모니터링하고 필요한 경우 트래픽을 대체 엔드포인트로 자동으로 리디렉션하도록 구성할 수 있습니다. 이 자동화는 가동 중지 시간을 최소화하고 재해 복구 시나리오 중에 사용자에게 보다 원활한 환경을 제공합니다.</t>
+          <t>Traffic Manager를 구현하면 응용 프로그램 끝점의 상태를 지속적으로 모니터링하고 필요한 경우 트래픽을 대체 끝점으로 자동으로 리디렉션하도록 구성할 수 있습니다. 이 자동화는 가동 중지 시간을 최소화하고 재해 복구 시나리오 중에 사용자에게 보다 원활한 환경을 제공합니다.</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
@@ -2444,7 +2409,7 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>DNS (디엔디</t>
+          <t>DNS (영문)</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
@@ -2454,7 +2419,7 @@
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>온-프레미스 DNS 서비스에서 단일 실패 지점을 제거하고 비즈니스 연속성 및 재해 복구 시나리오 중에 신뢰할 수 있는 DNS 확인을 보장하려면 여러 지역에서 Azure DNS Private Resolver를 활용하는 것이 좋습니다. 서로 다른 지역에 둘 이상의 Azure DNS 프라이빗 확인자를 배포하여 DNS 장애 조치(failover)를 사용하도록 설정하고 DNS 인프라에서 복원력을 달성할 수 있습니다.</t>
+          <t>온-프레미스 DNS 서비스에서 단일 실패 지점을 제거하고 비즈니스 연속성 및 재해 복구 시나리오 중에 신뢰할 수 있는 DNS 확인을 보장하려면 여러 지역에서 Azure DNS Private Resolvers를 활용하는 것이 좋습니다. 서로 다른 지역에 두 개 이상의 Azure DNS 프라이빗 확인자를 배포하여 DNS 장애 조치(failover)를 사용하도록 설정하고 DNS 인프라에서 복원력을 달성할 수 있습니다.</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
@@ -2499,7 +2464,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>온-프레미스 데이터 게이트웨이 클러스터를 사용하여 중요 비즈니스용 데이터에 대한 고가용성 보장Use on-premises data gateway clusters to ensure high availability for business-critical data</t>
+          <t>온-프레미스 데이터 게이트웨이 클러스터를 사용하여 비즈니스 크리티컬 데이터에 대한 고가용성 보장Use on-premises data gateway clusters to ensure high availability for business-critical data</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
@@ -2544,17 +2509,17 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>익스프레스라우트(ExpressT</t>
+          <t>익스프레스라우트</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>고가용성을 위해 ExpressRoute를 활용할 때 파트너 네트워크와 고객 네트워크 내에서 중복성 보장Ensure redundancy within both partner network and customer network when utilizing ExpressRoute for high availability</t>
+          <t>고가용성을 위해 ExpressRoute를 활용하는 경우 파트너 네트워크와 고객 네트워크 모두에서 중복성을 보장합니다.</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute를 사용하는 경우 파트너 및 고객 네트워크 모두에 중복성을 통합하여 고가용성을 위해 디자인하는 것이 중요합니다. 여기에는 여러 ExpressRoute 회로, 네트워크에서 Microsoft로의 중복 연결 및 온-프레미스 네트워크 장비에 중복 연결이 있는지 확인하는 것이 포함될 수 있습니다.</t>
+          <t>ExpressRoute를 사용하는 경우 파트너 및 고객 네트워크 모두에 중복성을 통합하여 고가용성을 설계하는 것이 중요합니다. 여기에는 여러 ExpressRoute 회로, 네트워크에서 Microsoft로의 중복 연결, 온-프레미스 네트워크 장비에 중복 연결이 있는지 확인 등이 포함될 수 있습니다.</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
@@ -2594,7 +2559,7 @@
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>익스프레스라우트(ExpressT</t>
+          <t>익스프레스라우트</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
@@ -2604,7 +2569,7 @@
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>기본 회로는 일반 트래픽을 처리해야 하며, 백업 회로는 기본 회로에 장애가 발생할 경우 인계받을 준비가 되어 있어야 합니다. BGP 속성을 활용하여 라우팅에 영향을 미치고 기본 및 백업 회로를 효과적으로 지정할 수 있습니다.</t>
+          <t>기본 회로는 일반 트래픽을 처리해야 하며, 백업 회로는 기본 회로에 장애가 발생할 경우 인계할 준비가 되어 있어야 합니다. BGP 속성을 활용하여 라우팅에 영향을 미치고 기본 및 백업 회로를 효과적으로 지정합니다.</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2644,17 +2609,17 @@
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>익스프레스라우트(ExpressT</t>
+          <t>익스프레스라우트</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>사이트 간 VPN을 ExpressRoute 개인 피어링에 대한 백업으로 배포하는 것이 좋습니다</t>
+          <t>사이트 간 VPN을 ExpressRoute 개인 피어링의 백업으로 배포하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>S2S VPN 연결은 ExpressRoute 회로 오류가 발생할 경우 비용 효율적이고 복원력 있는 백업 솔루션을 제공할 수 있습니다. S2S VPN을 장애 조치(failover)로 사용하면 ExpressRoute에만 의존하지 않고 Azure 리소스에 대한 연결을 유지할 수 있습니다.</t>
+          <t>S2S VPN 연결은 ExpressRoute 회로 오류 발생 시 비용 효율적이고 복원력 있는 백업 솔루션을 제공할 수 있습니다. S2S VPN을 장애 조치(failover)로 사용하면 ExpressRoute에만 의존하지 않고도 Azure 리소스에 대한 연결을 유지할 수 있습니다.</t>
         </is>
       </c>
       <c r="E39" s="21" t="inlineStr">
@@ -2694,12 +2659,12 @@
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>부하 분산 장치</t>
+          <t>로드 밸런서</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>프로덕션 애플리케이션에 대한 트래픽을 처리하는 Load Balancer에 대한 표준 SKU 활용Leverage the Standard SKU for Load Balancers that handle traffic to production applications</t>
+          <t>프로덕션 애플리케이션에 대한 트래픽을 처리하는 Load Balancer에 대한 표준 SKU 활용Leverage the Standard SKU for Load Balancer that handle traffic to production applications</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
@@ -2744,7 +2709,7 @@
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>부하 분산 장치</t>
+          <t>로드 밸런서</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
@@ -2754,7 +2719,7 @@
       </c>
       <c r="D41" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">영역 중복 프런트 엔드를 사용하여 부하 분산 장치를 구성하면 단일 IP 주소를 사용하여 모든 영역에서 영역 리소스를 제공할 수 있습니다. 지역 내에서 하나 이상의 영역이 정상 상태로 유지되는 한 프런트 엔드와 연결된 IP 주소는 하나 이상의 영역 오류에서 살아남을 수 있습니다. 부하 분산 장치의 백 엔드 풀에 다른 영역의 가상 머신과 같은 여러 영역 리소스를 사용하는 것이 좋습니다. </t>
+          <t xml:space="preserve">영역 중복 프런트 엔드로 로드 밸런서를 구성하면 단일 IP 주소로 모든 영역의 영역 리소스를 제공할 수 있습니다. 지역 내에서 하나 이상의 영역이 정상 상태로 유지되는 한 프런트 엔드와 연결된 IP 주소는 하나 이상의 영역 오류를 견딜 수 있습니다. 여러 영역 리소스(예: 다른 영역의 가상 머신)를 부하 분산 장치의 백 엔드 풀에 두는 것이 좋습니다. </t>
         </is>
       </c>
       <c r="E41" s="21" t="inlineStr">
@@ -2794,17 +2759,17 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>부하 분산 장치</t>
+          <t>로드 밸런서</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Load Balancer 상태 프로브를 정의할 때 올바른 프로토콜, 적절한 간격 및 시간 제한, 대표 경로 및 프로브 응답을 선택합니다</t>
+          <t>Load Balancer 상태 프로브를 정의할 때 올바른 프로토콜, 적절한 간격 및 시간 제한, 대표 경로 및 프로브 응답을 선택합니다.</t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer에 대한 상태 프로브를 디자인할 때 백 엔드 인스턴스를 안정적이고 정확하게 모니터링할 수 있도록 모범 사례를 따르는 것이 중요합니다.</t>
+          <t>Azure Load Balancer에 대한 상태 프로브를 설계할 때 백 엔드 인스턴스의 안정적이고 정확한 모니터링을 보장하기 위해 모범 사례를 따르는 것이 중요합니다.</t>
         </is>
       </c>
       <c r="E42" s="21" t="inlineStr">
@@ -2844,7 +2809,7 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>NVAs</t>
+          <t>증권 시세 표시기</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
@@ -2854,7 +2819,7 @@
       </c>
       <c r="D43" s="21" t="inlineStr">
         <is>
-          <t>Azure에서 NVA를 배포하기 위한 최상의 옵션을 선택할 때 공급업체의 권장 사항을 고려하고 NVA 공급업체에서 특정 디자인을 심사하고 유효성을 검사했는지 확인하는 것이 중요합니다. 또한 공급업체는 Azure에서 원활하게 통합하는 데 필요한 NVA 구성을 제공해야 합니다.</t>
+          <t>Azure에서 NVA를 배포하기 위한 최상의 옵션을 선택할 때 공급업체의 권장 사항을 고려하고 NVA 공급업체에서 특정 디자인을 검사하고 유효성을 검사했는지 확인하는 것이 중요합니다. 또한 공급업체는 Azure에서 원활한 통합을 위해 필요한 NVA 구성을 제공해야 합니다.</t>
         </is>
       </c>
       <c r="E43" s="21" t="inlineStr">
@@ -2899,12 +2864,12 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>액티브-액티브 모드에서 Azure VPN Gateway를 배포하여 VPN 연결에 대한 고가용성 및 중복성을 보장합니다.</t>
+          <t>Azure VPN Gateway를 액티브-액티브 모드로 배포하여 VPN 연결에 대한 고가용성 및 중복성을 보장합니다.</t>
         </is>
       </c>
       <c r="D44" s="21" t="inlineStr">
         <is>
-          <t>액티브-액티브 모드에서 VPN Gateway를 배포하면 여러 게이트웨이에 VPN 트래픽을 분산하여 안정성을 개선하고 오류 또는 유지 관리 시 지속적인 연결을 보장할 수 있습니다.</t>
+          <t>VPN Gateway를 액티브-액티브 모드로 배포하면 VPN 트래픽을 여러 게이트웨이에 분산하여 안정성을 높이고 장애 또는 유지 관리 시 지속적인 연결을 보장할 수 있습니다.</t>
         </is>
       </c>
       <c r="E44" s="21" t="inlineStr">
@@ -2949,12 +2914,12 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>VPN Gateway를 배포할 때 영역 중복 SKU를 사용하여 복원력을 높이고 영역 수준 오류로부터 보호합니다</t>
+          <t>VPN Gateway를 배포할 때 영역 중복 SKU를 사용하여 복원력을 높이고 영역 수준 오류로부터 보호합니다.</t>
         </is>
       </c>
       <c r="D45" s="21" t="inlineStr">
         <is>
-          <t>영역 중복 SKU는 VPN 게이트웨이가 지역 내에서 물리적 및 논리적으로 분리되도록 하여 복원력과 확장성을 제공합니다. 이 배포 구성은 영역 수준 오류로부터 Azure에 대한 온-프레미스 네트워크 연결을 보호합니다.</t>
+          <t>영역 중복 SKU는 VPN 게이트웨이가 지역 내에서 물리적, 논리적으로 분리되도록 하여 복원력과 확장성을 제공합니다. 이 배포 구성은 영역 수준 오류로부터 Azure에 대한 온-프레미스 네트워크 연결을 보호합니다.</t>
         </is>
       </c>
       <c r="E45" s="21" t="inlineStr">
@@ -6972,20 +6937,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -6995,121 +7058,6 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -7285,7 +7233,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>필요하지 않음</t>
+          <t>필요 없음</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -7295,7 +7243,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>권장 사항을 이해했지만 현재 요구 사항에는 필요하지 않습니다.</t>
+          <t>권장 사항을 이해했지만 현재 요구 사항에 필요하지 않음</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -7307,7 +7255,7 @@
     <row r="6">
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>해당 사항 없음</t>
+          <t>해당 없음</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
